--- a/2024_forecast/data/raw_data/SEAK pink salmon harvest 2023.xlsx
+++ b/2024_forecast/data/raw_data/SEAK pink salmon harvest 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\southeast_pink_salmon_preseason\2024_forecast\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{445B016F-5D3D-4899-8D40-8287A397A011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD8B6F8-CC05-4614-A193-CDB89E03E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41850" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="2205" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>NA</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{FA839C08-54FF-4FF4-8591-AB1FD09F6672}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used for assessment 10-19-2023 SEM</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,11 +93,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +260,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -570,7 +616,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,7 +636,6 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1054,11 +1099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F30"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1127,7 +1172,7 @@
         <f>B5-D5</f>
         <v>42448749</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f>E5/1000000</f>
         <v>42.448748999999999</v>
       </c>
@@ -1735,5 +1780,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>